--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1603"/>
+  <dimension ref="A1:H1584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40907,10 +40907,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1255">
@@ -40949,10 +40947,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -40991,10 +40987,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1257">
@@ -41033,10 +41027,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1258">
@@ -41071,10 +41063,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -41113,10 +41103,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -41151,10 +41139,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1261">
@@ -41193,10 +41179,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -41215,10 +41199,8 @@
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1263">
@@ -41263,10 +41245,8 @@
       </c>
       <c r="F1264" t="inlineStr"/>
       <c r="G1264" t="inlineStr"/>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41301,10 +41281,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1266">
@@ -41339,10 +41317,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41373,10 +41349,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41407,10 +41381,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41437,10 +41409,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41467,10 +41437,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41501,10 +41469,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41535,10 +41501,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41565,10 +41529,8 @@
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41595,10 +41557,8 @@
       </c>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41625,10 +41585,8 @@
       </c>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41651,10 +41609,8 @@
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1277">
@@ -41685,10 +41641,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41719,10 +41673,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41757,10 +41709,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41791,10 +41741,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41825,10 +41773,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41855,10 +41801,8 @@
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41885,10 +41829,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41915,10 +41857,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41937,10 +41877,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41967,10 +41905,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41997,10 +41933,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -42019,10 +41953,8 @@
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -42041,10 +41973,8 @@
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42085,10 +42015,8 @@
       </c>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42115,10 +42043,8 @@
       </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42149,10 +42075,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42187,10 +42111,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -42225,10 +42147,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1296">
@@ -42259,10 +42179,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1297">
@@ -42297,10 +42215,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42335,10 +42251,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42369,10 +42283,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42403,10 +42315,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42437,10 +42347,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42471,10 +42379,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42509,10 +42415,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1304">
@@ -42547,10 +42451,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -42585,10 +42487,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42615,10 +42515,8 @@
       </c>
       <c r="F1306" t="inlineStr"/>
       <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42645,10 +42543,8 @@
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42679,10 +42575,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42713,10 +42607,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42751,10 +42643,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -42785,10 +42675,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1312">
@@ -42823,10 +42711,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1313">
@@ -42857,10 +42743,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42895,10 +42779,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42933,10 +42815,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42963,10 +42843,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42993,10 +42871,8 @@
       </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -43023,10 +42899,8 @@
       </c>
       <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43053,10 +42927,8 @@
       </c>
       <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43087,10 +42959,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43121,10 +42991,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43173,10 +43041,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43207,10 +43073,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -43241,10 +43105,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1326">
@@ -43275,10 +43137,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43309,10 +43169,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43339,10 +43197,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43373,10 +43229,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43407,10 +43261,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43437,10 +43289,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43467,10 +43317,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43497,10 +43345,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43527,10 +43373,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1335">
@@ -43557,10 +43401,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43587,10 +43429,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43617,10 +43457,8 @@
       </c>
       <c r="F1337" t="inlineStr"/>
       <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43647,10 +43485,8 @@
       </c>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43685,10 +43521,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43719,10 +43553,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43757,10 +43589,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43791,10 +43621,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43821,10 +43649,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43859,10 +43685,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43885,10 +43709,8 @@
       <c r="E1345" t="inlineStr"/>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43915,10 +43737,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -43945,10 +43765,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -43979,10 +43797,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -44013,10 +43829,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1350">
@@ -44043,10 +43857,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44081,10 +43893,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44119,10 +43929,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44157,10 +43965,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -44195,10 +44001,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -44225,10 +44029,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44263,10 +44065,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44293,10 +44093,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44323,10 +44121,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44353,10 +44149,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44397,10 +44191,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44431,10 +44223,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44465,10 +44255,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44499,10 +44287,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44533,10 +44319,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44563,10 +44347,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44593,10 +44375,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44627,10 +44407,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1369">
@@ -44665,10 +44443,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -44699,10 +44475,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44729,10 +44503,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44759,10 +44531,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44789,10 +44559,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44819,10 +44587,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44849,10 +44615,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44879,10 +44643,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44909,10 +44671,8 @@
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44939,10 +44699,8 @@
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44973,10 +44731,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -45007,10 +44763,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -45045,10 +44799,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45079,10 +44831,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45113,10 +44863,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1384">
@@ -45151,10 +44899,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -45181,10 +44927,8 @@
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45215,10 +44959,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45249,10 +44991,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45283,10 +45023,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45317,10 +45055,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45355,10 +45091,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45393,10 +45127,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45419,10 +45151,8 @@
       <c r="E1392" t="inlineStr"/>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45453,10 +45183,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45491,10 +45219,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45525,10 +45251,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45559,10 +45283,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45597,10 +45319,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45627,10 +45347,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45657,10 +45375,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1400">
@@ -45687,10 +45403,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -45717,10 +45431,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45747,10 +45459,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45777,10 +45487,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45807,10 +45515,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45837,10 +45543,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45867,10 +45571,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45897,10 +45599,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45927,10 +45627,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45957,10 +45655,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45987,10 +45683,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46017,10 +45711,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46047,10 +45739,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46077,10 +45767,8 @@
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46111,10 +45799,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46141,10 +45827,8 @@
       </c>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46175,10 +45859,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46209,10 +45891,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46243,10 +45923,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46277,10 +45955,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46315,10 +45991,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46349,10 +46023,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46383,10 +46055,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46421,10 +46091,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -46459,10 +46127,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -46493,10 +46159,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46527,10 +46191,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46561,10 +46223,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46599,10 +46259,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -46625,10 +46283,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -46655,10 +46311,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46681,10 +46335,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46711,222 +46363,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46938,33 +46608,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46976,33 +46642,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -47014,67 +46676,67 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -47086,29 +46748,29 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47120,33 +46782,33 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -47158,215 +46820,215 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -47378,57 +47040,57 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47438,125 +47100,89 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1454" t="inlineStr"/>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1456" t="inlineStr"/>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47566,31 +47192,27 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
           <t>3</t>
@@ -47600,31 +47222,27 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
           <t>3</t>
@@ -47634,313 +47252,257 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -47952,33 +47514,29 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -47990,33 +47548,29 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -48028,35 +47582,27 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
           <t>3</t>
@@ -48066,35 +47612,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48104,63 +47642,63 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
@@ -48172,7 +47710,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
@@ -48182,47 +47720,55 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1476" t="inlineStr">
         <is>
           <t>3</t>
@@ -48232,45 +47778,49 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
           <t>3</t>
@@ -48280,121 +47830,129 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr"/>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
@@ -48410,17 +47968,17 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
@@ -48436,55 +47994,47 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
@@ -48496,27 +48046,31 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>1</t>
@@ -48526,27 +48080,31 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48554,29 +48112,29 @@
       </c>
     </row>
     <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1489" t="inlineStr"/>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48584,25 +48142,33 @@
       </c>
     </row>
     <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1490" t="inlineStr"/>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48612,65 +48178,41 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
+      <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
+      <c r="H1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48680,29 +48222,29 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
@@ -48714,27 +48256,31 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -48744,27 +48290,31 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48774,97 +48324,93 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
@@ -48876,31 +48422,27 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
           <t>3</t>
@@ -48910,17 +48452,17 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
@@ -48936,17 +48478,17 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
@@ -48962,17 +48504,17 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
@@ -48988,33 +48530,37 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -49024,27 +48570,31 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -49054,17 +48604,21 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1505" t="inlineStr">
         <is>
           <t>2</t>
@@ -49074,7 +48628,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -49084,13 +48638,21 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
@@ -49100,7 +48662,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -49110,11 +48672,15 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
@@ -49126,7 +48692,7 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -49136,7 +48702,7 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
@@ -49152,7 +48718,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -49162,81 +48728,73 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
+      <c r="G1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -49244,7 +48802,11 @@
       </c>
     </row>
     <row r="1512">
-      <c r="A1512" t="inlineStr"/>
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1512" t="inlineStr">
         <is>
           <t>US</t>
@@ -49252,21 +48814,17 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
         <is>
           <t>3</t>
@@ -49274,7 +48832,11 @@
       </c>
     </row>
     <row r="1513">
-      <c r="A1513" t="inlineStr"/>
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1513" t="inlineStr">
         <is>
           <t>US</t>
@@ -49282,25 +48844,17 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="inlineStr"/>
       <c r="H1513" t="inlineStr">
         <is>
           <t>3</t>
@@ -49310,39 +48864,47 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr"/>
-      <c r="C1514" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr"/>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
@@ -49354,29 +48916,29 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
@@ -49388,29 +48950,29 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1517" t="inlineStr">
@@ -49422,31 +48984,27 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
         <is>
           <t>3</t>
@@ -49456,31 +49014,27 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
           <t>3</t>
@@ -49490,87 +49044,79 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
@@ -49584,17 +49130,17 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
@@ -49603,152 +49149,172 @@
       <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
+      <c r="G1526" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1528" t="inlineStr">
@@ -49760,29 +49326,25 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1529" t="inlineStr">
@@ -49794,23 +49356,23 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
@@ -49824,21 +49386,25 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
@@ -49850,193 +49416,197 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr"/>
+      <c r="C1533" t="inlineStr"/>
       <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1533" t="inlineStr"/>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1533" t="inlineStr"/>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr"/>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr"/>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
@@ -50048,29 +49618,29 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
@@ -50082,31 +49652,27 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
         <is>
           <t>3</t>
@@ -50116,81 +49682,85 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
@@ -50202,25 +49772,21 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
@@ -50232,23 +49798,23 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr"/>
@@ -50262,23 +49828,27 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1546" t="inlineStr">
         <is>
           <t>2</t>
@@ -50288,457 +49858,413 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1548" t="inlineStr"/>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1549" t="inlineStr"/>
       <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1549" t="inlineStr"/>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1550" t="inlineStr"/>
       <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1551" t="inlineStr"/>
       <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1551" t="inlineStr"/>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
+      <c r="G1554" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1555" t="inlineStr"/>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr"/>
-      <c r="C1556" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1556" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr"/>
+      <c r="H1556" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1558" t="inlineStr"/>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1559" t="inlineStr"/>
       <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
@@ -50750,31 +50276,23 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1562" t="inlineStr"/>
       <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1562" t="inlineStr"/>
       <c r="H1562" t="inlineStr">
         <is>
           <t>3</t>
@@ -50784,25 +50302,21 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1563" t="inlineStr"/>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
@@ -50814,85 +50328,73 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1564" t="inlineStr"/>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr"/>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1565" t="inlineStr"/>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr"/>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1566" t="inlineStr"/>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr"/>
       <c r="H1566" t="inlineStr">
@@ -50904,17 +50406,17 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
@@ -50930,83 +50432,87 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr"/>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr"/>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1569" t="inlineStr"/>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
+      <c r="G1570" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1570" t="inlineStr">
         <is>
           <t>2</t>
@@ -51016,17 +50522,17 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
@@ -51042,17 +50548,17 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
@@ -51068,21 +50574,25 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr"/>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr"/>
       <c r="H1573" t="inlineStr">
@@ -51094,17 +50604,17 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
@@ -51113,240 +50623,252 @@
       <c r="G1574" t="inlineStr"/>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>$-102.86B</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>$ -104.5B</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr"/>
+      <c r="C1577" t="inlineStr"/>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1577" t="inlineStr"/>
+      <c r="H1577" t="inlineStr"/>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>BoC Monetary Policy Report</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
+      <c r="G1578" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>BoC Interest Rate Decision</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1579" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>7.77%</t>
+        </is>
+      </c>
+      <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>BoC Press Conference</t>
+          <t>Private Sector Credit YoYDEC</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
       <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="H1582" t="inlineStr">
         <is>
           <t>2</t>
@@ -51356,23 +50878,31 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+          <t>Household Consumption MoMDEC</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr"/>
+      <c r="G1583" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1583" t="inlineStr">
         <is>
           <t>3</t>
@@ -51382,558 +50912,28 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+          <t>Economic Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr"/>
       <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1585" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1586" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1586" t="inlineStr"/>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1587" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1587" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1588" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1588" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1588" t="inlineStr"/>
-      <c r="E1588" t="inlineStr"/>
-      <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr"/>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1589" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1589" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1589" t="inlineStr"/>
-      <c r="E1589" t="inlineStr"/>
-      <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1590" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1590" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr"/>
-      <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr"/>
-      <c r="H1590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1591" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1591" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1591" t="inlineStr"/>
-      <c r="E1591" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr"/>
-      <c r="H1591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1592" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1592" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1592" t="inlineStr"/>
-      <c r="E1592" t="inlineStr"/>
-      <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr"/>
-      <c r="H1592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1593" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1593" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1593" t="inlineStr"/>
-      <c r="E1593" t="inlineStr">
-        <is>
-          <t>12.25%</t>
-        </is>
-      </c>
-      <c r="F1593" t="inlineStr"/>
-      <c r="G1593" t="inlineStr">
-        <is>
-          <t>12.75%</t>
-        </is>
-      </c>
-      <c r="H1593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1594" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1594" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
-        </is>
-      </c>
-      <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr"/>
-      <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr"/>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1595" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1595" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
-        </is>
-      </c>
-      <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr"/>
-      <c r="F1595" t="inlineStr"/>
-      <c r="G1595" t="inlineStr"/>
-      <c r="H1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>07:01 PM</t>
-        </is>
-      </c>
-      <c r="B1596" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1596" t="inlineStr">
-        <is>
-          <t>Car Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1596" t="inlineStr"/>
-      <c r="E1596" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr"/>
-      <c r="H1596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1597" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1597" t="inlineStr">
-        <is>
-          <t>RBA Bulletin</t>
-        </is>
-      </c>
-      <c r="D1597" t="inlineStr"/>
-      <c r="E1597" t="inlineStr"/>
-      <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr"/>
-      <c r="H1597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1598">
-      <c r="A1598" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1598" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1598" t="inlineStr">
-        <is>
-          <t>Export Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1598" t="inlineStr"/>
-      <c r="E1598" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1599">
-      <c r="A1599" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1599" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1599" t="inlineStr">
-        <is>
-          <t>Import Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1599" t="inlineStr"/>
-      <c r="E1599" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1600">
-      <c r="A1600" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1600" t="inlineStr"/>
-      <c r="C1600" t="inlineStr"/>
-      <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr"/>
-      <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr"/>
-      <c r="H1600" t="inlineStr"/>
-    </row>
-    <row r="1601">
-      <c r="A1601" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1601" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C1601" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1601" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1602">
-      <c r="A1602" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1602" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr">
-        <is>
-          <t>7.77%</t>
-        </is>
-      </c>
-      <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1603">
-      <c r="A1603" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1603" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1603" t="inlineStr">
-        <is>
-          <t>Private Sector Credit YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr">
-        <is>
-          <t>4.16%</t>
-        </is>
-      </c>
-      <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1610"/>
+  <dimension ref="A1:H1592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41239,10 +41239,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1263" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1264">
@@ -41281,10 +41279,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41315,10 +41311,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41349,10 +41343,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41379,10 +41371,8 @@
       </c>
       <c r="F1267" t="inlineStr"/>
       <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41409,10 +41399,8 @@
       </c>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41443,10 +41431,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41477,10 +41463,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41507,10 +41491,8 @@
       </c>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41537,10 +41519,8 @@
       </c>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41567,10 +41547,8 @@
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41593,10 +41571,8 @@
       <c r="E1274" t="inlineStr"/>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1275">
@@ -41627,10 +41603,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41661,10 +41635,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41699,10 +41671,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41733,10 +41703,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41767,10 +41735,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41797,10 +41763,8 @@
       </c>
       <c r="F1280" t="inlineStr"/>
       <c r="G1280" t="inlineStr"/>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41827,10 +41791,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41857,10 +41819,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41879,10 +41839,8 @@
       <c r="E1283" t="inlineStr"/>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41909,10 +41867,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41939,10 +41895,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41961,10 +41915,8 @@
       <c r="E1286" t="inlineStr"/>
       <c r="F1286" t="inlineStr"/>
       <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41983,10 +41935,8 @@
       <c r="E1287" t="inlineStr"/>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -42027,10 +41977,8 @@
       </c>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42057,10 +42005,8 @@
       </c>
       <c r="F1290" t="inlineStr"/>
       <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1291">
@@ -42091,10 +42037,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1292">
@@ -42129,10 +42073,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1293">
@@ -42167,10 +42109,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42201,10 +42141,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1295">
@@ -42239,10 +42177,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42277,10 +42213,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42311,10 +42245,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42345,10 +42277,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42379,10 +42309,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42413,10 +42341,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42451,10 +42377,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1302">
@@ -42489,10 +42413,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1303">
@@ -42527,10 +42449,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42557,10 +42477,8 @@
       </c>
       <c r="F1304" t="inlineStr"/>
       <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -42587,10 +42505,8 @@
       </c>
       <c r="F1305" t="inlineStr"/>
       <c r="G1305" t="inlineStr"/>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42621,10 +42537,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42655,10 +42569,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42693,10 +42605,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1309">
@@ -42727,10 +42637,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1310">
@@ -42765,10 +42673,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1311">
@@ -42799,10 +42705,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42837,10 +42741,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -42875,10 +42777,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42905,10 +42805,8 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42935,10 +42833,8 @@
       </c>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42965,10 +42861,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42995,10 +42889,8 @@
       </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -43029,10 +42921,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1319">
@@ -43063,10 +42953,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43115,10 +43003,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43149,10 +43035,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1323">
@@ -43183,10 +43067,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1324">
@@ -43217,10 +43099,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43251,10 +43131,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43281,10 +43159,8 @@
       </c>
       <c r="F1326" t="inlineStr"/>
       <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43315,10 +43191,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43349,10 +43223,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43379,10 +43251,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43409,10 +43279,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43439,10 +43307,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43469,10 +43335,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1333">
@@ -43499,10 +43363,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43529,10 +43391,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43559,10 +43419,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43589,10 +43447,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43627,10 +43483,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43661,10 +43515,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43699,10 +43551,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43733,10 +43583,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43763,10 +43611,8 @@
       </c>
       <c r="F1341" t="inlineStr"/>
       <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43801,10 +43647,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43827,10 +43671,8 @@
       <c r="E1343" t="inlineStr"/>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1344">
@@ -43857,10 +43699,8 @@
       </c>
       <c r="F1344" t="inlineStr"/>
       <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43887,10 +43727,8 @@
       </c>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1346">
@@ -43921,10 +43759,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -43955,10 +43791,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1348">
@@ -43985,10 +43819,8 @@
       </c>
       <c r="F1348" t="inlineStr"/>
       <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1349">
@@ -44023,10 +43855,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1350">
@@ -44061,10 +43891,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1351">
@@ -44099,10 +43927,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1352">
@@ -44137,10 +43963,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1353">
@@ -44167,10 +43991,8 @@
       </c>
       <c r="F1353" t="inlineStr"/>
       <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44205,10 +44027,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44235,10 +44055,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44265,10 +44083,8 @@
       </c>
       <c r="F1356" t="inlineStr"/>
       <c r="G1356" t="inlineStr"/>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44295,10 +44111,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44339,10 +44153,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44373,10 +44185,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44407,10 +44217,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44441,10 +44249,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44475,10 +44281,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44505,10 +44309,8 @@
       </c>
       <c r="F1364" t="inlineStr"/>
       <c r="G1364" t="inlineStr"/>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44535,10 +44337,8 @@
       </c>
       <c r="F1365" t="inlineStr"/>
       <c r="G1365" t="inlineStr"/>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44569,10 +44369,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1367">
@@ -44607,10 +44405,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1368">
@@ -44641,10 +44437,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44671,10 +44465,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44701,10 +44493,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44731,10 +44521,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44761,10 +44549,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44791,10 +44577,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44821,10 +44605,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44851,10 +44633,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44881,10 +44661,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44915,10 +44693,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44949,10 +44725,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1379">
@@ -44987,10 +44761,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1380">
@@ -45021,10 +44793,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -45055,10 +44825,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45093,10 +44861,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1383">
@@ -45123,10 +44889,8 @@
       </c>
       <c r="F1383" t="inlineStr"/>
       <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45157,10 +44921,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45191,10 +44953,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45225,10 +44985,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45259,10 +45017,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45297,10 +45053,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1389">
@@ -45335,10 +45089,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1390">
@@ -45361,10 +45113,8 @@
       <c r="E1390" t="inlineStr"/>
       <c r="F1390" t="inlineStr"/>
       <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45395,10 +45145,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -45433,10 +45181,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45467,10 +45213,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45501,10 +45245,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -45539,10 +45281,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1396">
@@ -45569,10 +45309,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45599,10 +45337,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45629,10 +45365,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1399">
@@ -45659,10 +45393,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45689,10 +45421,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45719,10 +45449,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45749,10 +45477,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45779,10 +45505,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45809,10 +45533,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45839,10 +45561,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45869,10 +45589,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45899,10 +45617,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45929,10 +45645,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45959,10 +45673,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45989,10 +45701,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46019,10 +45729,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46053,10 +45761,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46083,10 +45789,8 @@
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46117,10 +45821,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1415">
@@ -46151,10 +45853,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1416">
@@ -46185,10 +45885,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46219,10 +45917,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1418">
@@ -46257,10 +45953,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1419">
@@ -46291,10 +45985,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -46325,10 +46017,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -46363,10 +46053,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1422">
@@ -46401,10 +46089,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1423">
@@ -46435,10 +46121,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1424">
@@ -46469,10 +46153,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -46503,10 +46185,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1426">
@@ -46541,10 +46221,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1427">
@@ -46567,10 +46245,8 @@
       <c r="E1427" t="inlineStr"/>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1428">
@@ -46597,10 +46273,8 @@
       </c>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -46623,10 +46297,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -46653,222 +46325,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr"/>
-      <c r="C1431" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1431" t="inlineStr"/>
-      <c r="E1431" t="inlineStr"/>
+      <c r="E1431" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr"/>
+      <c r="H1431" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1435" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1435" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -46880,33 +46570,29 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1438" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
@@ -46918,33 +46604,29 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1439" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46956,67 +46638,67 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -47028,29 +46710,29 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
@@ -47062,33 +46744,33 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -47100,215 +46782,215 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1444" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1444" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1448" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
@@ -47320,57 +47002,57 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr"/>
+      <c r="E1450" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1451" t="inlineStr"/>
       <c r="H1451" t="inlineStr">
         <is>
           <t>3</t>
@@ -47380,125 +47062,89 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
+      <c r="C1452" t="inlineStr"/>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1452" t="inlineStr"/>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1453" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1454" t="inlineStr"/>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47508,31 +47154,27 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
           <t>3</t>
@@ -47542,31 +47184,27 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47576,313 +47214,257 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1458" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1458" t="inlineStr"/>
+      <c r="F1458" t="inlineStr"/>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1459" t="inlineStr"/>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1464" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr"/>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1465" t="inlineStr"/>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47894,33 +47476,29 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
@@ -47932,33 +47510,29 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -47970,35 +47544,27 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1469" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr"/>
       <c r="H1469" t="inlineStr">
         <is>
           <t>3</t>
@@ -48008,35 +47574,27 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr"/>
+      <c r="G1470" t="inlineStr"/>
       <c r="H1470" t="inlineStr">
         <is>
           <t>3</t>
@@ -48046,63 +47604,63 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1472" t="inlineStr">
@@ -48114,7 +47672,7 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
@@ -48124,47 +47682,55 @@
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr"/>
+      <c r="G1473" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr"/>
+      <c r="G1474" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1474" t="inlineStr">
         <is>
           <t>3</t>
@@ -48174,45 +47740,49 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
           <t>3</t>
@@ -48222,121 +47792,129 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1479" t="inlineStr"/>
       <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
@@ -48352,17 +47930,17 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
@@ -48378,55 +47956,47 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1483" t="inlineStr"/>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1484" t="inlineStr"/>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
       <c r="H1484" t="inlineStr">
@@ -48438,27 +48008,31 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
           <t>1</t>
@@ -48468,27 +48042,31 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48496,29 +48074,29 @@
       </c>
     </row>
     <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1487" t="inlineStr"/>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>3</t>
@@ -48526,25 +48104,33 @@
       </c>
     </row>
     <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1488" t="inlineStr"/>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr"/>
-      <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="E1488" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1488" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48554,65 +48140,41 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1489" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1489" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr"/>
+      <c r="C1489" t="inlineStr"/>
       <c r="D1489" t="inlineStr"/>
-      <c r="E1489" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1489" t="inlineStr"/>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1489" t="inlineStr"/>
+      <c r="H1489" t="inlineStr"/>
     </row>
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1490" t="inlineStr"/>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48622,29 +48184,29 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1491" t="inlineStr">
@@ -48656,27 +48218,31 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr"/>
+      <c r="G1492" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48686,27 +48252,31 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr"/>
+      <c r="G1493" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1493" t="inlineStr">
         <is>
           <t>3</t>
@@ -48716,97 +48286,93 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
@@ -48818,31 +48384,27 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
           <t>3</t>
@@ -48852,17 +48414,17 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
@@ -48878,17 +48440,17 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
@@ -48904,17 +48466,17 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
@@ -48930,33 +48492,37 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr"/>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48966,27 +48532,31 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -48996,17 +48566,21 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
+      <c r="G1503" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1503" t="inlineStr">
         <is>
           <t>2</t>
@@ -49016,7 +48590,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -49026,13 +48600,21 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr"/>
+      <c r="G1504" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1504" t="inlineStr">
         <is>
           <t>3</t>
@@ -49042,7 +48624,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -49052,11 +48634,15 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
@@ -49068,7 +48654,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -49078,7 +48664,7 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
@@ -49094,7 +48680,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -49104,81 +48690,73 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
+      <c r="G1508" t="inlineStr"/>
+      <c r="H1508" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1509" t="inlineStr"/>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
@@ -49186,7 +48764,11 @@
       </c>
     </row>
     <row r="1510">
-      <c r="A1510" t="inlineStr"/>
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1510" t="inlineStr">
         <is>
           <t>US</t>
@@ -49194,21 +48776,17 @@
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1510" t="inlineStr"/>
       <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
@@ -49216,7 +48794,11 @@
       </c>
     </row>
     <row r="1511">
-      <c r="A1511" t="inlineStr"/>
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1511" t="inlineStr">
         <is>
           <t>US</t>
@@ -49224,25 +48806,17 @@
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1511" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -49252,39 +48826,47 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr"/>
-      <c r="C1512" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr"/>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr"/>
-      <c r="H1512" t="inlineStr"/>
+      <c r="H1512" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1513" t="inlineStr"/>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr"/>
       <c r="H1513" t="inlineStr">
@@ -49296,29 +48878,29 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1514" t="inlineStr">
@@ -49330,29 +48912,29 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1515" t="inlineStr">
@@ -49364,31 +48946,27 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
           <t>3</t>
@@ -49398,31 +48976,27 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
         <is>
           <t>3</t>
@@ -49432,87 +49006,79 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1518" t="inlineStr"/>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1520" t="inlineStr"/>
@@ -49526,17 +49092,17 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
@@ -49545,152 +49111,172 @@
       <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr"/>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr"/>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
+      <c r="G1523" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1526" t="inlineStr">
@@ -49702,29 +49288,25 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1527" t="inlineStr"/>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1527" t="inlineStr">
@@ -49736,23 +49318,23 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
@@ -49766,21 +49348,25 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr"/>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
       <c r="H1529" t="inlineStr">
@@ -49792,193 +49378,197 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr"/>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr"/>
+      <c r="C1531" t="inlineStr"/>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1531" t="inlineStr"/>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1531" t="inlineStr"/>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr"/>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr"/>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr"/>
+      <c r="G1535" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr"/>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr"/>
       <c r="H1536" t="inlineStr">
@@ -49990,29 +49580,29 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1537" t="inlineStr">
@@ -50024,31 +49614,27 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
         <is>
           <t>3</t>
@@ -50058,81 +49644,85 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr"/>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
@@ -50144,25 +49734,21 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
       <c r="H1542" t="inlineStr">
@@ -50174,23 +49760,23 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1543" t="inlineStr"/>
@@ -50204,23 +49790,27 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
       <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1544" t="inlineStr">
         <is>
           <t>2</t>
@@ -50230,457 +49820,413 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1545" t="inlineStr"/>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1546" t="inlineStr"/>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1548" t="inlineStr"/>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1549" t="inlineStr"/>
       <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1549" t="inlineStr"/>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr"/>
+      <c r="E1550" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr"/>
+      <c r="G1552" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1553" t="inlineStr"/>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr"/>
-      <c r="C1554" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr"/>
-      <c r="F1554" t="inlineStr"/>
+      <c r="E1554" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1554" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr"/>
+      <c r="H1554" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1555" t="inlineStr"/>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1556" t="inlineStr"/>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1558" t="inlineStr"/>
       <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1558" t="inlineStr"/>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1559" t="inlineStr"/>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
@@ -50692,31 +50238,23 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
         <is>
           <t>3</t>
@@ -50726,25 +50264,21 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
@@ -50756,85 +50290,73 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1562" t="inlineStr"/>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1563" t="inlineStr"/>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1564" t="inlineStr"/>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr"/>
       <c r="H1564" t="inlineStr">
@@ -50846,17 +50368,17 @@
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
@@ -50872,83 +50394,87 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr"/>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr"/>
       <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1567" t="inlineStr"/>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr"/>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
+      <c r="G1568" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1568" t="inlineStr">
         <is>
           <t>2</t>
@@ -50958,17 +50484,17 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
@@ -50984,17 +50510,17 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
@@ -51010,21 +50536,25 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr"/>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr"/>
       <c r="H1571" t="inlineStr">
@@ -51036,17 +50566,17 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
@@ -51055,240 +50585,252 @@
       <c r="G1572" t="inlineStr"/>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>$-102.86B</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>$ -104.5B</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr"/>
+      <c r="G1574" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1575" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr"/>
+      <c r="C1575" t="inlineStr"/>
       <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="E1575" t="inlineStr"/>
       <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1575" t="inlineStr"/>
+      <c r="H1575" t="inlineStr"/>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>BoC Monetary Policy Report</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr"/>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>BoC Interest Rate Decision</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1577" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>7.77%</t>
+        </is>
+      </c>
+      <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr"/>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>BoC Press Conference</t>
+          <t>Private Sector Credit YoYDEC</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
       <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
+      <c r="G1578" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr"/>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="H1580" t="inlineStr">
         <is>
           <t>2</t>
@@ -51298,23 +50840,31 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+          <t>Household Consumption MoMDEC</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1581" t="inlineStr">
         <is>
           <t>3</t>
@@ -51324,21 +50874,25 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+          <t>Economic Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr"/>
       <c r="H1582" t="inlineStr">
@@ -51350,69 +50904,77 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr"/>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr"/>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
+          <t>Core Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
@@ -51428,17 +50990,17 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
@@ -51454,17 +51016,17 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
@@ -51480,53 +51042,65 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
-      <c r="E1588" t="inlineStr"/>
+      <c r="E1588" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr"/>
+      <c r="G1588" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>Fed Interest Rate Decision</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
+      <c r="G1589" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1589" t="inlineStr">
         <is>
           <t>1</t>
@@ -51536,23 +51110,31 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Fed Press Conference</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr"/>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr"/>
+      <c r="G1590" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1590" t="inlineStr">
         <is>
           <t>1</t>
@@ -51562,592 +51144,68 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>12.25%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>12.75%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
-      <c r="E1592" t="inlineStr"/>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
       <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr"/>
+      <c r="G1592" t="inlineStr">
+        <is>
+          <t>6.00%</t>
+        </is>
+      </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1593" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1593" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
-        </is>
-      </c>
-      <c r="D1593" t="inlineStr"/>
-      <c r="E1593" t="inlineStr"/>
-      <c r="F1593" t="inlineStr"/>
-      <c r="G1593" t="inlineStr"/>
-      <c r="H1593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>07:01 PM</t>
-        </is>
-      </c>
-      <c r="B1594" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1594" t="inlineStr">
-        <is>
-          <t>Car Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr"/>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1595" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1595" t="inlineStr">
-        <is>
-          <t>RBA Bulletin</t>
-        </is>
-      </c>
-      <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr"/>
-      <c r="F1595" t="inlineStr"/>
-      <c r="G1595" t="inlineStr"/>
-      <c r="H1595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1596" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1596" t="inlineStr">
-        <is>
-          <t>Export Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1596" t="inlineStr"/>
-      <c r="E1596" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1597" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1597" t="inlineStr">
-        <is>
-          <t>Import Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1597" t="inlineStr"/>
-      <c r="E1597" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1598">
-      <c r="A1598" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1598" t="inlineStr"/>
-      <c r="C1598" t="inlineStr"/>
-      <c r="D1598" t="inlineStr"/>
-      <c r="E1598" t="inlineStr"/>
-      <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr"/>
-      <c r="H1598" t="inlineStr"/>
-    </row>
-    <row r="1599">
-      <c r="A1599" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1599" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C1599" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1599" t="inlineStr"/>
-      <c r="E1599" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1599" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1600">
-      <c r="A1600" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1600" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1600" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr">
-        <is>
-          <t>7.77%</t>
-        </is>
-      </c>
-      <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr"/>
-      <c r="H1600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1601">
-      <c r="A1601" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1601" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1601" t="inlineStr">
-        <is>
-          <t>Private Sector Credit YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr">
-        <is>
-          <t>4.16%</t>
-        </is>
-      </c>
-      <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H1601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1602">
-      <c r="A1602" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1602" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1602" t="inlineStr">
-        <is>
           <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1603">
-      <c r="A1603" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1603" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1603" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="H1603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1604">
-      <c r="A1604" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1604" t="inlineStr">
-        <is>
-          <t>Household Consumption MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1605">
-      <c r="A1605" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1605" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1605" t="inlineStr">
-        <is>
-          <t>Economic Confidence IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr">
-        <is>
-          <t>98.8</t>
-        </is>
-      </c>
-      <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
-      <c r="H1605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1606">
-      <c r="A1606" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1606" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1606" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D1606" t="inlineStr"/>
-      <c r="E1606" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr"/>
-      <c r="H1606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1607">
-      <c r="A1607" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1607" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1607" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr"/>
-      <c r="H1607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1608">
-      <c r="A1608" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1608" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1608" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr"/>
-      <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr"/>
-      <c r="H1608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1609">
-      <c r="A1609" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1609" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1609" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr"/>
-      <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr"/>
-      <c r="H1609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1610">
-      <c r="A1610" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1610" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1610" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr"/>
-      <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr"/>
-      <c r="H1610" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1592"/>
+  <dimension ref="A1:H1585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46353,10 +46353,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46387,10 +46385,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46421,10 +46417,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -46455,10 +46449,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -46493,10 +46485,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1436">
@@ -46527,10 +46517,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1437">
@@ -46561,10 +46549,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -46595,10 +46581,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -46629,10 +46613,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1440">
@@ -46663,10 +46645,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -46701,10 +46681,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1442">
@@ -46735,10 +46713,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -46773,10 +46749,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1444">
@@ -46811,10 +46785,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -46849,10 +46821,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -46887,10 +46857,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -46925,10 +46893,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -46959,10 +46925,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -46993,10 +46957,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -47023,10 +46985,8 @@
       </c>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -47053,10 +47013,8 @@
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
@@ -47101,130 +47059,136 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr"/>
-      <c r="C1454" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr"/>
+      <c r="H1454" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1455" t="inlineStr"/>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr"/>
+      <c r="G1456" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
       <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
@@ -47240,17 +47204,17 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
@@ -47266,55 +47230,47 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
       <c r="F1460" t="inlineStr"/>
       <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
       <c r="F1461" t="inlineStr"/>
       <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
@@ -47326,27 +47282,31 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1462" t="inlineStr">
         <is>
           <t>1</t>
@@ -47356,27 +47316,31 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
           <t>3</t>
@@ -47384,29 +47348,29 @@
       </c>
     </row>
     <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1464" t="inlineStr"/>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
+      <c r="G1464" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1464" t="inlineStr">
         <is>
           <t>3</t>
@@ -47414,25 +47378,33 @@
       </c>
     </row>
     <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1465" t="inlineStr"/>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr"/>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
+      <c r="E1465" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1465" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1465" t="inlineStr">
         <is>
           <t>3</t>
@@ -47442,65 +47414,41 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1466" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1466" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr"/>
+      <c r="C1466" t="inlineStr"/>
       <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1466" t="inlineStr"/>
       <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1466" t="inlineStr"/>
+      <c r="H1466" t="inlineStr"/>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47510,29 +47458,29 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -47544,27 +47492,31 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1469" t="inlineStr">
         <is>
           <t>3</t>
@@ -47574,27 +47526,31 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr"/>
+      <c r="G1470" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1470" t="inlineStr">
         <is>
           <t>3</t>
@@ -47604,97 +47560,93 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
@@ -47706,31 +47658,27 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1474" t="inlineStr"/>
       <c r="H1474" t="inlineStr">
         <is>
           <t>3</t>
@@ -47740,17 +47688,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
@@ -47766,17 +47714,17 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
@@ -47792,17 +47740,17 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
@@ -47818,33 +47766,37 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr"/>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
@@ -47854,27 +47806,31 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr"/>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
@@ -47884,17 +47840,21 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr"/>
+      <c r="G1480" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1480" t="inlineStr">
         <is>
           <t>2</t>
@@ -47904,7 +47864,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
@@ -47914,13 +47874,21 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr"/>
+      <c r="E1481" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
           <t>3</t>
@@ -47930,7 +47898,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -47940,11 +47908,15 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
@@ -47956,7 +47928,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
@@ -47966,7 +47938,7 @@
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
@@ -47982,7 +47954,7 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
@@ -47992,81 +47964,73 @@
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr"/>
+      <c r="E1484" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
+      <c r="G1485" t="inlineStr"/>
+      <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48074,7 +48038,11 @@
       </c>
     </row>
     <row r="1487">
-      <c r="A1487" t="inlineStr"/>
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1487" t="inlineStr">
         <is>
           <t>US</t>
@@ -48082,21 +48050,17 @@
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1487" t="inlineStr"/>
       <c r="H1487" t="inlineStr">
         <is>
           <t>3</t>
@@ -48104,7 +48068,11 @@
       </c>
     </row>
     <row r="1488">
-      <c r="A1488" t="inlineStr"/>
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1488" t="inlineStr">
         <is>
           <t>US</t>
@@ -48112,25 +48080,17 @@
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1488" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48140,39 +48100,47 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1489" t="inlineStr"/>
-      <c r="C1489" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr"/>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr"/>
-      <c r="H1489" t="inlineStr"/>
+      <c r="H1489" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1490" t="inlineStr"/>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr"/>
       <c r="H1490" t="inlineStr">
@@ -48184,29 +48152,29 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1491" t="inlineStr">
@@ -48218,29 +48186,29 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
@@ -48252,31 +48220,27 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
           <t>3</t>
@@ -48286,31 +48250,27 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -48320,87 +48280,79 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1496" t="inlineStr"/>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
@@ -48414,17 +48366,17 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
@@ -48433,152 +48385,172 @@
       <c r="G1498" t="inlineStr"/>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1503" t="inlineStr">
@@ -48590,29 +48562,25 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1504" t="inlineStr"/>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1504" t="inlineStr">
@@ -48624,23 +48592,23 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
@@ -48654,21 +48622,25 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
       <c r="H1506" t="inlineStr">
@@ -48680,193 +48652,197 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr"/>
+      <c r="C1508" t="inlineStr"/>
       <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1508" t="inlineStr"/>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr"/>
+      <c r="G1512" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1512" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr"/>
+      <c r="E1513" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr"/>
       <c r="H1513" t="inlineStr">
@@ -48878,29 +48854,29 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1514" t="inlineStr">
@@ -48912,31 +48888,27 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
           <t>3</t>
@@ -48946,81 +48918,85 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr"/>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
@@ -49032,25 +49008,21 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1519" t="inlineStr"/>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
@@ -49062,23 +49034,23 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1520" t="inlineStr"/>
@@ -49092,23 +49064,27 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
       <c r="H1521" t="inlineStr">
         <is>
           <t>2</t>
@@ -49118,457 +49094,413 @@
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1522" t="inlineStr"/>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1522" t="inlineStr"/>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1524" t="inlineStr"/>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1524" t="inlineStr"/>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1525" t="inlineStr"/>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1526" t="inlineStr"/>
       <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1526" t="inlineStr"/>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
+      <c r="G1529" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1530" t="inlineStr"/>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr"/>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr"/>
-      <c r="C1531" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1531" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr"/>
+      <c r="H1531" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1532" t="inlineStr"/>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1533" t="inlineStr"/>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1534" t="inlineStr"/>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1534" t="inlineStr"/>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1535" t="inlineStr"/>
       <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1536" t="inlineStr"/>
       <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr"/>
       <c r="H1536" t="inlineStr">
@@ -49580,31 +49512,23 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1537" t="inlineStr"/>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1537" t="inlineStr"/>
       <c r="H1537" t="inlineStr">
         <is>
           <t>3</t>
@@ -49614,25 +49538,21 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1538" t="inlineStr"/>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
@@ -49644,85 +49564,73 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1539" t="inlineStr"/>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1541" t="inlineStr"/>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
@@ -49734,17 +49642,17 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
@@ -49760,83 +49668,87 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>2.51%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
       <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr"/>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1545" t="inlineStr">
         <is>
           <t>2</t>
@@ -49846,17 +49758,17 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
@@ -49872,17 +49784,17 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
@@ -49898,21 +49810,25 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr"/>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
@@ -49924,17 +49840,17 @@
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
@@ -49943,240 +49859,252 @@
       <c r="G1549" t="inlineStr"/>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>$-102.86B</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>$ -104.5B</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr"/>
+      <c r="G1551" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1552" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr"/>
+      <c r="C1552" t="inlineStr"/>
       <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="E1552" t="inlineStr"/>
       <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1552" t="inlineStr"/>
+      <c r="H1552" t="inlineStr"/>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>BoC Monetary Policy Report</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr"/>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr"/>
+      <c r="G1553" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>BoC Interest Rate Decision</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1554" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>7.77%</t>
+        </is>
+      </c>
+      <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>BoC Press Conference</t>
+          <t>Private Sector Credit YoYDEC</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr"/>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
       <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
+      <c r="G1555" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr"/>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr"/>
+      <c r="G1556" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr"/>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr"/>
+      <c r="G1557" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="H1557" t="inlineStr">
         <is>
           <t>2</t>
@@ -50186,23 +50114,31 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+          <t>Household Consumption MoMDEC</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr"/>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr"/>
+      <c r="G1558" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1558" t="inlineStr">
         <is>
           <t>3</t>
@@ -50212,21 +50148,25 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+          <t>Economic Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr"/>
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
@@ -50238,69 +50178,77 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr"/>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr"/>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
+          <t>Core Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
@@ -50316,17 +50264,17 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
@@ -50342,17 +50290,17 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
@@ -50368,53 +50316,65 @@
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr"/>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Fed Interest Rate Decision</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1566" t="inlineStr">
         <is>
           <t>1</t>
@@ -50424,23 +50384,31 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Fed Press Conference</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
+      <c r="G1567" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1567" t="inlineStr">
         <is>
           <t>1</t>
@@ -50450,83 +50418,99 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>12.25%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>12.75%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
+      <c r="G1569" t="inlineStr">
+        <is>
+          <t>6.00%</t>
+        </is>
+      </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
+      <c r="G1570" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1570" t="inlineStr">
         <is>
           <t>3</t>
@@ -50536,23 +50520,23 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Car Production YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>-30%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
@@ -50566,23 +50550,31 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>RBA Bulletin</t>
+          <t>BoE Consumer CreditDEC</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
-      <c r="E1572" t="inlineStr"/>
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>£0.878B</t>
+        </is>
+      </c>
       <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr"/>
+      <c r="G1572" t="inlineStr">
+        <is>
+          <t>£ 1.3B</t>
+        </is>
+      </c>
       <c r="H1572" t="inlineStr">
         <is>
           <t>2</t>
@@ -50592,245 +50584,253 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Export Prices QoQQ4</t>
+          <t>Mortgage ApprovalsDEC</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>65.72K</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>61.5K</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Import Prices QoQQ4</t>
+          <t>Mortgage LendingDEC</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>£2.47B</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>£ 2.2B</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr"/>
-      <c r="C1575" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>M4 Money Supply MoMDEC</t>
+        </is>
+      </c>
       <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr"/>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr"/>
-      <c r="H1575" t="inlineStr"/>
+      <c r="H1575" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>Net Lending to Individuals MoMDEC</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>£3.4B</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>£ 3.5B</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>7.77%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
+      <c r="G1577" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>4.16%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ PrelQ4</t>
+          <t>Consumer Confidence FinalJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>Economic SentimentJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="E1580" t="inlineStr"/>
       <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="G1580" t="inlineStr"/>
       <c r="H1580" t="inlineStr">
         <is>
           <t>2</t>
@@ -50840,57 +50840,57 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Household Consumption MoMDEC</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Economic Confidence IndexJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
@@ -50904,308 +50904,90 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Industrial SentimentJAN</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-14.1</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr"/>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Selling Price ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr"/>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY PrelJAN</t>
+          <t>Services SentimentJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
+      <c r="E1585" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr"/>
       <c r="H1585" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1586" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D1586" t="inlineStr"/>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1587" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1587" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1588" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1588" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1588" t="inlineStr"/>
-      <c r="E1588" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1589" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1589" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1589" t="inlineStr"/>
-      <c r="E1589" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1590" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1590" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1590" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1591" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1591" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1591" t="inlineStr"/>
-      <c r="E1591" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B1592" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1592" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D1592" t="inlineStr"/>
-      <c r="E1592" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
-      <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr">
-        <is>
-          <t>6.00%</t>
-        </is>
-      </c>
-      <c r="H1592" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1633"/>
+  <dimension ref="A1:H1615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40903,10 +40903,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1255">
@@ -40945,10 +40943,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1256">
@@ -40983,10 +40979,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1257">
@@ -41025,10 +41019,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1258">
@@ -41073,10 +41065,8 @@
       </c>
       <c r="F1259" t="inlineStr"/>
       <c r="G1259" t="inlineStr"/>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -41115,10 +41105,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1261">
@@ -41157,10 +41145,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -41195,10 +41181,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1262" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1263">
@@ -41233,10 +41217,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1264">
@@ -41271,10 +41253,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41305,10 +41285,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41335,10 +41313,8 @@
       </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41365,10 +41341,8 @@
       </c>
       <c r="F1267" t="inlineStr"/>
       <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41395,10 +41369,8 @@
       </c>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41421,10 +41393,8 @@
       <c r="E1269" t="inlineStr"/>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1270">
@@ -41455,10 +41425,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41489,10 +41457,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41527,10 +41493,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41561,10 +41525,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41595,10 +41557,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41625,10 +41585,8 @@
       </c>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41651,10 +41609,8 @@
       </c>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41677,10 +41633,8 @@
       </c>
       <c r="F1277" t="inlineStr"/>
       <c r="G1277" t="inlineStr"/>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41699,10 +41653,8 @@
       <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41729,10 +41681,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41759,10 +41709,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41781,10 +41729,8 @@
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41803,10 +41749,8 @@
       <c r="E1282" t="inlineStr"/>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41847,10 +41791,8 @@
       </c>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41877,10 +41819,8 @@
       </c>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41911,10 +41851,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1287">
@@ -41949,10 +41887,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1288">
@@ -41987,10 +41923,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1289">
@@ -42025,10 +41959,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -42063,10 +41995,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1291">
@@ -42101,10 +42031,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42135,10 +42063,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42169,10 +42095,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1294">
@@ -42203,10 +42127,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -42237,10 +42159,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42275,10 +42195,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1297">
@@ -42313,10 +42231,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1298">
@@ -42351,10 +42267,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42381,10 +42295,8 @@
       </c>
       <c r="F1299" t="inlineStr"/>
       <c r="G1299" t="inlineStr"/>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42411,10 +42323,8 @@
       </c>
       <c r="F1300" t="inlineStr"/>
       <c r="G1300" t="inlineStr"/>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42445,10 +42355,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42479,10 +42387,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42513,10 +42419,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42551,10 +42455,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -42585,10 +42487,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1306">
@@ -42623,10 +42523,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1307">
@@ -42657,10 +42555,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42695,10 +42591,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42733,10 +42627,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42763,10 +42655,8 @@
       </c>
       <c r="F1310" t="inlineStr"/>
       <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42793,10 +42683,8 @@
       </c>
       <c r="F1311" t="inlineStr"/>
       <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42823,10 +42711,8 @@
       </c>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -42853,10 +42739,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42887,10 +42771,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1315">
@@ -42921,10 +42803,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42951,10 +42831,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -43003,10 +42881,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43037,10 +42913,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1320">
@@ -43071,10 +42945,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43105,10 +42977,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43139,10 +43009,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1323">
@@ -43169,10 +43037,8 @@
       </c>
       <c r="F1323" t="inlineStr"/>
       <c r="G1323" t="inlineStr"/>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43203,10 +43069,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43237,10 +43101,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43267,10 +43129,8 @@
       </c>
       <c r="F1326" t="inlineStr"/>
       <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43297,10 +43157,8 @@
       </c>
       <c r="F1327" t="inlineStr"/>
       <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43327,10 +43185,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43357,10 +43213,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1330">
@@ -43387,10 +43241,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43417,10 +43269,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43447,10 +43297,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43477,10 +43325,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43515,10 +43361,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43549,10 +43393,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43587,10 +43429,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43621,10 +43461,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43651,10 +43489,8 @@
       </c>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43689,10 +43525,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43715,10 +43549,8 @@
       <c r="E1340" t="inlineStr"/>
       <c r="F1340" t="inlineStr"/>
       <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1341">
@@ -43745,10 +43577,8 @@
       </c>
       <c r="F1341" t="inlineStr"/>
       <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43775,10 +43605,8 @@
       </c>
       <c r="F1342" t="inlineStr"/>
       <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43809,10 +43637,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43843,10 +43669,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1345">
@@ -43873,10 +43697,8 @@
       </c>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43911,10 +43733,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -43949,10 +43769,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -43987,10 +43805,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1349">
@@ -44025,10 +43841,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1350">
@@ -44055,10 +43869,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1351">
@@ -44093,10 +43905,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1352">
@@ -44123,10 +43933,8 @@
       </c>
       <c r="F1352" t="inlineStr"/>
       <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44153,10 +43961,8 @@
       </c>
       <c r="F1353" t="inlineStr"/>
       <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44183,10 +43989,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44227,10 +44031,8 @@
       </c>
       <c r="F1356" t="inlineStr"/>
       <c r="G1356" t="inlineStr"/>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44265,10 +44067,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44299,10 +44099,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44337,10 +44135,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44371,10 +44167,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44401,10 +44195,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44431,10 +44223,8 @@
       </c>
       <c r="F1362" t="inlineStr"/>
       <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44465,10 +44255,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1364">
@@ -44503,10 +44291,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1365">
@@ -44537,10 +44323,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44567,10 +44351,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44597,10 +44379,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44627,10 +44407,8 @@
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44657,10 +44435,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44687,10 +44463,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44717,10 +44491,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44747,10 +44519,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44777,10 +44547,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44811,10 +44579,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44845,10 +44611,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1376">
@@ -44883,10 +44647,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1377">
@@ -44917,10 +44679,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44951,10 +44711,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1379">
@@ -44989,10 +44747,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1380">
@@ -45019,10 +44775,8 @@
       </c>
       <c r="F1380" t="inlineStr"/>
       <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -45057,10 +44811,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -45095,10 +44847,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45133,10 +44883,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45171,10 +44919,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45209,10 +44955,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1386">
@@ -45247,10 +44991,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1387">
@@ -45273,10 +45015,8 @@
       <c r="E1387" t="inlineStr"/>
       <c r="F1387" t="inlineStr"/>
       <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1388">
@@ -45307,10 +45047,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45345,10 +45083,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1390">
@@ -45383,10 +45119,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1391">
@@ -45417,10 +45151,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -45455,10 +45187,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45485,10 +45215,8 @@
       </c>
       <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45515,10 +45243,8 @@
       </c>
       <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45545,10 +45271,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1396">
@@ -45575,10 +45299,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45605,10 +45327,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -45635,10 +45355,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45665,10 +45383,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45695,10 +45411,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45725,10 +45439,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45755,10 +45467,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45785,10 +45495,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45815,10 +45523,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45845,10 +45551,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45875,10 +45579,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45905,10 +45607,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45935,10 +45635,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45969,10 +45667,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45999,10 +45695,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46033,10 +45727,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1412">
@@ -46067,10 +45759,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46101,10 +45791,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46135,10 +45823,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1415">
@@ -46173,10 +45859,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1416">
@@ -46207,10 +45891,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46241,10 +45923,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -46279,10 +45959,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1419">
@@ -46317,10 +45995,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1420">
@@ -46351,10 +46027,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46385,10 +46059,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46419,10 +46091,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46457,10 +46127,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -46483,10 +46151,8 @@
       <c r="E1424" t="inlineStr"/>
       <c r="F1424" t="inlineStr"/>
       <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -46513,10 +46179,8 @@
       </c>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1426">
@@ -46539,10 +46203,8 @@
       </c>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46569,30 +46231,52 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr"/>
-      <c r="C1428" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>CBI Distributive TradesJAN</t>
+        </is>
+      </c>
       <c r="D1428" t="inlineStr"/>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr"/>
+      <c r="E1428" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1428" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1428" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="H1428" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr">
@@ -46602,41 +46286,37 @@
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1429" t="inlineStr"/>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
+      <c r="G1429" t="inlineStr"/>
       <c r="H1429" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
@@ -46648,79 +46328,75 @@
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1432" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
@@ -46732,143 +46408,135 @@
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1433" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1435" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1436" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -46880,139 +46548,135 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F1438" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F1439" t="inlineStr"/>
+          <t>4.15M</t>
+        </is>
+      </c>
+      <c r="F1439" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -47024,29 +46688,33 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F1441" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -47058,181 +46726,181 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
@@ -47244,57 +46912,61 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
-      <c r="E1447" t="inlineStr"/>
+      <c r="E1447" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
+      <c r="G1447" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>478</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr"/>
-      <c r="G1448" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1448" t="inlineStr"/>
       <c r="H1448" t="inlineStr">
         <is>
           <t>3</t>
@@ -47304,21 +46976,25 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
@@ -47330,65 +47006,45 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr">
-        <is>
-          <t>CBI Distributive TradesJAN</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr"/>
+      <c r="C1450" t="inlineStr"/>
       <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E1450" t="inlineStr"/>
+      <c r="F1450" t="inlineStr"/>
+      <c r="G1450" t="inlineStr"/>
+      <c r="H1450" t="inlineStr"/>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr"/>
+      <c r="G1451" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="H1451" t="inlineStr">
         <is>
           <t>3</t>
@@ -47398,65 +47054,41 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr">
-        <is>
-          <t>CFIB Business BarometerJAN</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
+      <c r="C1452" t="inlineStr"/>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
+      <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1452" t="inlineStr"/>
+      <c r="H1452" t="inlineStr"/>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47466,31 +47098,27 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -47500,103 +47128,79 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>3.46%</t>
+        </is>
+      </c>
+      <c r="F1455" t="inlineStr"/>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1457" t="inlineStr"/>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47606,31 +47210,27 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
           <t>2</t>
@@ -47640,249 +47240,209 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1461" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>85.1</t>
+        </is>
+      </c>
+      <c r="F1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1463" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+      <c r="E1463" t="inlineStr"/>
+      <c r="F1463" t="inlineStr"/>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1464" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -47894,33 +47454,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47932,35 +47488,27 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47970,31 +47518,27 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -48004,61 +47548,65 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr"/>
+      <c r="G1470" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1470" t="inlineStr">
         <is>
           <t>3</t>
@@ -48068,7 +47616,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
@@ -48078,65 +47626,81 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr"/>
-      <c r="C1472" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1472" t="inlineStr"/>
-      <c r="E1472" t="inlineStr"/>
+      <c r="E1472" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="H1472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
-      <c r="E1473" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1473" t="inlineStr"/>
       <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1473" t="inlineStr"/>
       <c r="H1473" t="inlineStr">
         <is>
           <t>3</t>
@@ -48146,39 +47710,47 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr"/>
-      <c r="C1474" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="inlineStr"/>
+      <c r="H1474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
       <c r="H1475" t="inlineStr">
@@ -48190,103 +47762,103 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr"/>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
@@ -48302,55 +47874,47 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
       <c r="H1481" t="inlineStr">
@@ -48362,87 +47926,91 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr">
-        <is>
-          <t>84.7</t>
-        </is>
-      </c>
+      <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -48450,25 +48018,29 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1485" t="inlineStr"/>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr"/>
+      <c r="E1485" t="inlineStr">
+        <is>
+          <t>1.493M</t>
+        </is>
+      </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -48476,101 +48048,77 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
+      <c r="A1486" t="inlineStr"/>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>43.5K</t>
-        </is>
-      </c>
-      <c r="F1486" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr">
-        <is>
-          <t>Jobseekers TotalDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr"/>
+      <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr">
-        <is>
-          <t>2935K</t>
-        </is>
-      </c>
+      <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr"/>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48580,27 +48128,31 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48610,27 +48162,31 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48640,63 +48196,63 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
@@ -48708,31 +48264,27 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
           <t>2</t>
@@ -48742,55 +48294,59 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr"/>
+      <c r="E1495" t="inlineStr">
+        <is>
+          <t>0.745%</t>
+        </is>
+      </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
@@ -48802,17 +48358,17 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
@@ -48828,17 +48384,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48854,17 +48410,17 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
@@ -48873,44 +48429,44 @@
       <c r="G1498" t="inlineStr"/>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -48920,27 +48476,31 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-1.1%</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48950,23 +48510,31 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr"/>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48976,13 +48544,21 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1502" t="inlineStr">
         <is>
           <t>3</t>
@@ -48992,7 +48568,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -49002,11 +48578,15 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
@@ -49018,7 +48598,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -49028,7 +48608,7 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
@@ -49044,65 +48624,57 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1506" t="inlineStr"/>
       <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
@@ -49110,7 +48682,11 @@
       </c>
     </row>
     <row r="1507">
-      <c r="A1507" t="inlineStr"/>
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1507" t="inlineStr">
         <is>
           <t>US</t>
@@ -49118,21 +48694,13 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
+      <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
         <is>
           <t>3</t>
@@ -49140,7 +48708,11 @@
       </c>
     </row>
     <row r="1508">
-      <c r="A1508" t="inlineStr"/>
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1508" t="inlineStr">
         <is>
           <t>US</t>
@@ -49148,25 +48720,17 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1508" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
           <t>3</t>
@@ -49176,75 +48740,79 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr"/>
-      <c r="C1509" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+        </is>
+      </c>
       <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr"/>
+      <c r="H1509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -49254,29 +48822,29 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
@@ -49288,29 +48856,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -49322,31 +48890,27 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1514" t="inlineStr"/>
       <c r="H1514" t="inlineStr">
         <is>
           <t>3</t>
@@ -49356,87 +48920,79 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
+      <c r="E1516" t="inlineStr"/>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
@@ -49450,21 +49006,25 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr"/>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>$21.45T</t>
+        </is>
+      </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
@@ -49476,17 +49036,17 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
@@ -49495,126 +49055,138 @@
       <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr"/>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1523" t="inlineStr">
@@ -49626,61 +49198,61 @@
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1525" t="inlineStr">
         <is>
           <t>3</t>
@@ -49690,21 +49262,25 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr"/>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
       <c r="H1526" t="inlineStr">
@@ -49716,53 +49292,53 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
@@ -49776,169 +49352,169 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr"/>
+      <c r="C1529" t="inlineStr"/>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1529" t="inlineStr"/>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr"/>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr"/>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
+      <c r="G1532" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr"/>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
+      <c r="G1533" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
+      <c r="G1534" t="inlineStr"/>
       <c r="H1534" t="inlineStr">
         <is>
           <t>3</t>
@@ -49948,29 +49524,29 @@
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
@@ -49982,23 +49558,23 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
@@ -50012,79 +49588,83 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr"/>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>96.3</t>
+        </is>
+      </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>4.532%</t>
+          <t>3.731%</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
@@ -50098,25 +49678,21 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
+      <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
@@ -50128,91 +49704,83 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr"/>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.70%</t>
         </is>
       </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
         <is>
           <t>2</t>
@@ -50222,129 +49790,101 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1545" t="inlineStr"/>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1546" t="inlineStr"/>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
+      <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
           <t>3</t>
@@ -50354,130 +49894,154 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr"/>
+      <c r="G1548" t="inlineStr">
+        <is>
+          <t>$ -104.5B</t>
+        </is>
+      </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>0.595%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr"/>
+      <c r="G1550" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr"/>
-      <c r="C1551" t="inlineStr"/>
+          <t>08:45 AM</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>BoC Monetary Policy Report</t>
+        </is>
+      </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr"/>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr"/>
+      <c r="H1551" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1552" t="inlineStr"/>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1552" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1552" t="inlineStr"/>
       <c r="H1552" t="inlineStr">
         <is>
@@ -50488,123 +50052,99 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1553" t="inlineStr"/>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1554" t="inlineStr"/>
       <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1554" t="inlineStr"/>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1555" t="inlineStr"/>
       <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1555" t="inlineStr"/>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1556" t="inlineStr"/>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
       <c r="H1556" t="inlineStr">
@@ -50616,31 +50156,23 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
           <t>3</t>
@@ -50650,25 +50182,21 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1558" t="inlineStr"/>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
       <c r="H1558" t="inlineStr">
@@ -50680,85 +50208,73 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1559" t="inlineStr"/>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
@@ -50770,17 +50286,17 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
@@ -50796,25 +50312,21 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
+      <c r="E1563" t="inlineStr"/>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
@@ -50826,37 +50338,37 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1564" t="inlineStr"/>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
@@ -50866,7 +50378,7 @@
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
@@ -50875,50 +50387,58 @@
       <c r="G1565" t="inlineStr"/>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
@@ -50934,17 +50454,17 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
@@ -50960,21 +50480,25 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr"/>
       <c r="H1569" t="inlineStr">
@@ -50986,31 +50510,23 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
+      <c r="E1570" t="inlineStr"/>
       <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
+      <c r="G1570" t="inlineStr"/>
       <c r="H1570" t="inlineStr">
         <is>
           <t>2</t>
@@ -51020,251 +50536,279 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr"/>
+      <c r="G1571" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr"/>
+      <c r="C1573" t="inlineStr"/>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr"/>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr"/>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="H1573" t="inlineStr"/>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>BoC Interest Rate Decision</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1574" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr"/>
+      <c r="G1574" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>BoC Press Conference</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr"/>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>7.77%</t>
+        </is>
+      </c>
       <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr"/>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+          <t>Private Sector Credit YoYDEC</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr"/>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
       <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr"/>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
+      <c r="G1577" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
+      <c r="G1578" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+          <t>Household Consumption MoMDEC</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr"/>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1579" t="inlineStr">
         <is>
           <t>3</t>
@@ -51274,21 +50818,25 @@
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
+          <t>Economic Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr"/>
       <c r="H1580" t="inlineStr">
@@ -51300,69 +50848,77 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr"/>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr"/>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
+          <t>Core Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
@@ -51378,17 +50934,17 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
@@ -51404,17 +50960,17 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
@@ -51430,27 +50986,31 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Fed Interest Rate Decision</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
+      <c r="G1586" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1586" t="inlineStr">
         <is>
           <t>1</t>
@@ -51460,23 +51020,31 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Fed Press Conference</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr"/>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
+      <c r="G1587" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1587" t="inlineStr">
         <is>
           <t>1</t>
@@ -51486,113 +51054,133 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>12.25%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>12.75%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
-      <c r="E1589" t="inlineStr"/>
+      <c r="E1589" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
+      <c r="G1589" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr"/>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
       <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr"/>
+      <c r="G1590" t="inlineStr">
+        <is>
+          <t>6.00%</t>
+        </is>
+      </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>Car Production YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>-30%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr"/>
+      <c r="G1591" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1591" t="inlineStr">
         <is>
           <t>3</t>
@@ -51602,169 +51190,193 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>RBA Bulletin</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
-      <c r="E1592" t="inlineStr"/>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr"/>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>Export Prices QoQQ4</t>
+          <t>BoE Consumer CreditDEC</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>£0.878B</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>£ 1.3B</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>Import Prices QoQQ4</t>
+          <t>Mortgage ApprovalsDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>65.72K</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>61.5K</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1595" t="inlineStr"/>
-      <c r="C1595" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>Mortgage LendingDEC</t>
+        </is>
+      </c>
       <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr"/>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>£2.47B</t>
+        </is>
+      </c>
       <c r="F1595" t="inlineStr"/>
-      <c r="G1595" t="inlineStr"/>
-      <c r="H1595" t="inlineStr"/>
+      <c r="G1595" t="inlineStr">
+        <is>
+          <t>£ 2.2B</t>
+        </is>
+      </c>
+      <c r="H1595" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>M4 Money Supply MoMDEC</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G1596" t="inlineStr"/>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>Net Lending to Individuals MoMDEC</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>7.77%</t>
+          <t>£3.4B</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr"/>
+      <c r="G1597" t="inlineStr">
+        <is>
+          <t>£ 3.5B</t>
+        </is>
+      </c>
       <c r="H1597" t="inlineStr">
         <is>
           <t>3</t>
@@ -51774,63 +51386,63 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>4.16%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ PrelQ4</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
@@ -51842,31 +51454,27 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>Consumer Confidence FinalJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="G1600" t="inlineStr"/>
       <c r="H1600" t="inlineStr">
         <is>
           <t>2</t>
@@ -51876,145 +51484,145 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Household Consumption MoMDEC</t>
+          <t>Economic SentimentJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E1601" t="inlineStr"/>
       <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Economic Confidence IndexJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr"/>
+      <c r="G1602" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Industrial SentimentJAN</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-14.1</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY PrelJAN</t>
+          <t>Selling Price ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr"/>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
       <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
@@ -52026,21 +51634,25 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Services SentimentJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
-      <c r="E1606" t="inlineStr"/>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
@@ -52052,21 +51664,25 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>IGP-M Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr"/>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
       <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
@@ -52078,810 +51694,226 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>Industrial Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1608" t="inlineStr"/>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>Industrial Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>MPC Meeting Summary</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
-      <c r="E1611" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E1611" t="inlineStr"/>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>GDP Growth Rate QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>6.00%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
       <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1615">
-      <c r="A1615" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
+      <c r="A1615" t="inlineStr"/>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>BoE Consumer CreditDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>£0.878B</t>
+          <t>ZAR-4.46B</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>£ 1.3B</t>
-        </is>
-      </c>
+      <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1616">
-      <c r="A1616" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1616" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1616" t="inlineStr">
-        <is>
-          <t>Mortgage ApprovalsDEC</t>
-        </is>
-      </c>
-      <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr">
-        <is>
-          <t>65.72K</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>61.5K</t>
-        </is>
-      </c>
-      <c r="H1616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1617" t="inlineStr">
-        <is>
-          <t>Mortgage LendingDEC</t>
-        </is>
-      </c>
-      <c r="D1617" t="inlineStr"/>
-      <c r="E1617" t="inlineStr">
-        <is>
-          <t>£2.47B</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr"/>
-      <c r="G1617" t="inlineStr">
-        <is>
-          <t>£ 2.2B</t>
-        </is>
-      </c>
-      <c r="H1617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1618" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1618" t="inlineStr">
-        <is>
-          <t>M4 Money Supply MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1618" t="inlineStr"/>
-      <c r="E1618" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr"/>
-      <c r="H1618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1619" t="inlineStr">
-        <is>
-          <t>Net Lending to Individuals MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr">
-        <is>
-          <t>£3.4B</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>£ 3.5B</t>
-        </is>
-      </c>
-      <c r="H1619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1620" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1620" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1621" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1621" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D1621" t="inlineStr"/>
-      <c r="E1621" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>6.50%</t>
-        </is>
-      </c>
-      <c r="H1621" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1622" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1622" t="inlineStr">
-        <is>
-          <t>Consumer Confidence FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1622" t="inlineStr"/>
-      <c r="E1622" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr"/>
-      <c r="H1622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1623" t="inlineStr">
-        <is>
-          <t>Economic SentimentJAN</t>
-        </is>
-      </c>
-      <c r="D1623" t="inlineStr"/>
-      <c r="E1623" t="inlineStr"/>
-      <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
-      <c r="H1623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1624" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1624" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1625" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
-        </is>
-      </c>
-      <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
-      <c r="H1625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1626" t="inlineStr">
-        <is>
-          <t>Industrial SentimentJAN</t>
-        </is>
-      </c>
-      <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>-14.1</t>
-        </is>
-      </c>
-      <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr"/>
-      <c r="H1626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1627" t="inlineStr">
-        <is>
-          <t>Selling Price ExpectationsJAN</t>
-        </is>
-      </c>
-      <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr"/>
-      <c r="H1627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr">
-        <is>
-          <t>Services SentimentJAN</t>
-        </is>
-      </c>
-      <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr"/>
-      <c r="H1628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1629" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1629" t="inlineStr">
-        <is>
-          <t>IGP-M Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>0.94%</t>
-        </is>
-      </c>
-      <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
-      <c r="H1629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1630" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1630" t="inlineStr">
-        <is>
-          <t>Industrial Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr"/>
-      <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
-      <c r="H1630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1631" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1631" t="inlineStr">
-        <is>
-          <t>Industrial Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
-      <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr"/>
-      <c r="H1631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1632" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1632" t="inlineStr">
-        <is>
-          <t>MPC Meeting Summary</t>
-        </is>
-      </c>
-      <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr"/>
-      <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr"/>
-      <c r="H1632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="inlineStr"/>
-      <c r="B1633" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1633" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>ZAR-4.46B</t>
-        </is>
-      </c>
-      <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr"/>
-      <c r="H1633" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1640"/>
+  <dimension ref="A1:H1631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41065,10 +41065,8 @@
       </c>
       <c r="F1259" t="inlineStr"/>
       <c r="G1259" t="inlineStr"/>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -41107,10 +41105,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1261">
@@ -41149,10 +41145,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -41187,10 +41181,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1262" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1263">
@@ -41225,10 +41217,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1264">
@@ -41263,10 +41253,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41301,10 +41289,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41331,10 +41317,8 @@
       </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41361,10 +41345,8 @@
       </c>
       <c r="F1267" t="inlineStr"/>
       <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41391,10 +41373,8 @@
       </c>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41417,10 +41397,8 @@
       <c r="E1269" t="inlineStr"/>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1270">
@@ -41451,10 +41429,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41485,10 +41461,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41523,10 +41497,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41557,10 +41529,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41591,10 +41561,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41621,10 +41589,8 @@
       </c>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41643,10 +41609,8 @@
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41673,10 +41637,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41703,10 +41665,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41725,10 +41685,8 @@
       <c r="E1279" t="inlineStr"/>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41747,10 +41705,8 @@
       <c r="E1280" t="inlineStr"/>
       <c r="F1280" t="inlineStr"/>
       <c r="G1280" t="inlineStr"/>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41791,10 +41747,8 @@
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41821,10 +41775,8 @@
       </c>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41855,10 +41807,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1285">
@@ -41893,10 +41843,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1286">
@@ -41931,10 +41879,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1287">
@@ -41969,10 +41915,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1288">
@@ -42007,10 +41951,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -42045,10 +41987,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42079,10 +42019,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1291">
@@ -42113,10 +42051,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42147,10 +42083,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42181,10 +42115,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1294">
@@ -42219,10 +42151,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1295">
@@ -42257,10 +42187,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1296">
@@ -42295,10 +42223,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42325,10 +42251,8 @@
       </c>
       <c r="F1297" t="inlineStr"/>
       <c r="G1297" t="inlineStr"/>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42355,10 +42279,8 @@
       </c>
       <c r="F1298" t="inlineStr"/>
       <c r="G1298" t="inlineStr"/>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42389,10 +42311,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42423,10 +42343,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42457,10 +42375,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42495,10 +42411,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1303">
@@ -42529,10 +42443,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1304">
@@ -42567,10 +42479,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1305">
@@ -42601,10 +42511,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42639,10 +42547,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42677,10 +42583,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42707,10 +42611,8 @@
       </c>
       <c r="F1308" t="inlineStr"/>
       <c r="G1308" t="inlineStr"/>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42737,10 +42639,8 @@
       </c>
       <c r="F1309" t="inlineStr"/>
       <c r="G1309" t="inlineStr"/>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42767,10 +42667,8 @@
       </c>
       <c r="F1310" t="inlineStr"/>
       <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42797,10 +42695,8 @@
       </c>
       <c r="F1311" t="inlineStr"/>
       <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42831,10 +42727,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1313">
@@ -42865,10 +42759,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42895,10 +42787,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42947,10 +42837,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42981,10 +42869,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1318">
@@ -43015,10 +42901,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1319">
@@ -43049,10 +42933,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43083,10 +42965,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1321">
@@ -43113,10 +42993,8 @@
       </c>
       <c r="F1321" t="inlineStr"/>
       <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43147,10 +43025,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1323">
@@ -43181,10 +43057,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43211,10 +43085,8 @@
       </c>
       <c r="F1324" t="inlineStr"/>
       <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43241,10 +43113,8 @@
       </c>
       <c r="F1325" t="inlineStr"/>
       <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43271,10 +43141,8 @@
       </c>
       <c r="F1326" t="inlineStr"/>
       <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43301,10 +43169,8 @@
       </c>
       <c r="F1327" t="inlineStr"/>
       <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1328">
@@ -43331,10 +43197,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43361,10 +43225,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43391,10 +43253,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43421,10 +43281,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43459,10 +43317,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43493,10 +43349,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43531,10 +43385,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43565,10 +43417,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43595,10 +43445,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43633,10 +43481,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43659,10 +43505,8 @@
       <c r="E1338" t="inlineStr"/>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1339">
@@ -43689,10 +43533,8 @@
       </c>
       <c r="F1339" t="inlineStr"/>
       <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43719,10 +43561,8 @@
       </c>
       <c r="F1340" t="inlineStr"/>
       <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43753,10 +43593,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43787,10 +43625,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1343">
@@ -43817,10 +43653,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1344">
@@ -43855,10 +43689,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1345">
@@ -43893,10 +43725,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1346">
@@ -43931,10 +43761,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1347">
@@ -43969,10 +43797,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1348">
@@ -43999,10 +43825,8 @@
       </c>
       <c r="F1348" t="inlineStr"/>
       <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -44037,10 +43861,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1350">
@@ -44067,10 +43889,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1351">
@@ -44097,10 +43917,8 @@
       </c>
       <c r="F1351" t="inlineStr"/>
       <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1352">
@@ -44127,10 +43945,8 @@
       </c>
       <c r="F1352" t="inlineStr"/>
       <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44171,10 +43987,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44209,10 +44023,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44243,10 +44055,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44281,10 +44091,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44315,10 +44123,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44345,10 +44151,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44375,10 +44179,8 @@
       </c>
       <c r="F1360" t="inlineStr"/>
       <c r="G1360" t="inlineStr"/>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44409,10 +44211,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1362">
@@ -44447,10 +44247,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1363">
@@ -44481,10 +44279,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44511,10 +44307,8 @@
       </c>
       <c r="F1364" t="inlineStr"/>
       <c r="G1364" t="inlineStr"/>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44541,10 +44335,8 @@
       </c>
       <c r="F1365" t="inlineStr"/>
       <c r="G1365" t="inlineStr"/>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44571,10 +44363,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44601,10 +44391,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44631,10 +44419,8 @@
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44661,10 +44447,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44691,10 +44475,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44721,10 +44503,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44755,10 +44535,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44789,10 +44567,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1374">
@@ -44827,10 +44603,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1375">
@@ -44861,10 +44635,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44895,10 +44667,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1377">
@@ -44933,10 +44703,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1378">
@@ -44963,10 +44731,8 @@
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -45001,10 +44767,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -45039,10 +44803,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -45077,10 +44839,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -45115,10 +44875,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45153,10 +44911,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1384">
@@ -45191,10 +44947,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -45217,10 +44971,8 @@
       <c r="E1385" t="inlineStr"/>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1386">
@@ -45251,10 +45003,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45289,10 +45039,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1388">
@@ -45327,10 +45075,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45361,10 +45107,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45399,10 +45143,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45429,10 +45171,8 @@
       </c>
       <c r="F1391" t="inlineStr"/>
       <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -45459,10 +45199,8 @@
       </c>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45489,10 +45227,8 @@
       </c>
       <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1394">
@@ -45519,10 +45255,8 @@
       </c>
       <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -45549,10 +45283,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45579,10 +45311,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45609,10 +45339,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -45639,10 +45367,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45669,10 +45395,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45699,10 +45423,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45729,10 +45451,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45759,10 +45479,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45789,10 +45507,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45819,10 +45535,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45849,10 +45563,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45879,10 +45591,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45913,10 +45623,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45943,10 +45651,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45977,10 +45683,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1410">
@@ -46011,10 +45715,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1411">
@@ -46045,10 +45747,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46079,10 +45779,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1413">
@@ -46117,10 +45815,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1414">
@@ -46151,10 +45847,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46185,10 +45879,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46223,10 +45915,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1417">
@@ -46261,10 +45951,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46295,10 +45983,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1419">
@@ -46329,10 +46015,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -46363,10 +46047,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -46401,10 +46083,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1422">
@@ -46427,10 +46107,8 @@
       <c r="E1422" t="inlineStr"/>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1423">
@@ -46457,10 +46135,8 @@
       </c>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46483,10 +46159,8 @@
       </c>
       <c r="F1424" t="inlineStr"/>
       <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -46513,30 +46187,52 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr"/>
-      <c r="C1426" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>CBI Distributive TradesJAN</t>
+        </is>
+      </c>
       <c r="D1426" t="inlineStr"/>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr"/>
+      <c r="E1426" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1426" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1426" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="H1426" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr">
@@ -46546,41 +46242,37 @@
       </c>
       <c r="C1427" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1427" t="inlineStr"/>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
+      <c r="G1427" t="inlineStr"/>
       <c r="H1427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1428" t="inlineStr"/>
@@ -46592,79 +46284,75 @@
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1428" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1429" t="inlineStr"/>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1429" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1430" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1430" t="inlineStr">
@@ -46676,143 +46364,135 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1433" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1434" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
@@ -46824,139 +46504,135 @@
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F1436" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr"/>
+          <t>4.15M</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1438" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
@@ -46968,29 +46644,33 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1439" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F1439" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -47002,181 +46682,181 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47188,57 +46868,61 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
-      <c r="E1445" t="inlineStr"/>
+      <c r="E1445" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr"/>
+      <c r="G1445" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>478</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1446" t="inlineStr"/>
       <c r="H1446" t="inlineStr">
         <is>
           <t>3</t>
@@ -47248,21 +46932,25 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
-      <c r="E1447" t="inlineStr"/>
+      <c r="E1447" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr"/>
       <c r="H1447" t="inlineStr">
@@ -47274,65 +46962,45 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1448" t="inlineStr">
-        <is>
-          <t>CBI Distributive TradesJAN</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr"/>
+      <c r="C1448" t="inlineStr"/>
       <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1448" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G1448" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E1448" t="inlineStr"/>
+      <c r="F1448" t="inlineStr"/>
+      <c r="G1448" t="inlineStr"/>
+      <c r="H1448" t="inlineStr"/>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr"/>
+      <c r="G1449" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="H1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -47342,65 +47010,41 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr">
-        <is>
-          <t>CFIB Business BarometerJAN</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr"/>
+      <c r="C1450" t="inlineStr"/>
       <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
+      <c r="E1450" t="inlineStr"/>
       <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1450" t="inlineStr"/>
+      <c r="H1450" t="inlineStr"/>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1451" t="inlineStr"/>
       <c r="H1451" t="inlineStr">
         <is>
           <t>3</t>
@@ -47410,31 +47054,27 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1452" t="inlineStr"/>
       <c r="H1452" t="inlineStr">
         <is>
           <t>3</t>
@@ -47444,103 +47084,79 @@
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1453" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>3.46%</t>
+        </is>
+      </c>
+      <c r="F1453" t="inlineStr"/>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1455" t="inlineStr"/>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47550,31 +47166,27 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
           <t>2</t>
@@ -47584,249 +47196,209 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1459" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>85.1</t>
+        </is>
+      </c>
+      <c r="F1459" t="inlineStr"/>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1461" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
+      <c r="F1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1462" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1462" t="inlineStr"/>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1463" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1463" t="inlineStr"/>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1463" t="inlineStr">
@@ -47838,33 +47410,29 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1464" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
@@ -47876,35 +47444,27 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
           <t>3</t>
@@ -47914,31 +47474,27 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
           <t>3</t>
@@ -47948,61 +47504,65 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -48012,7 +47572,7 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
@@ -48022,65 +47582,85 @@
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1470" t="inlineStr"/>
-      <c r="C1470" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1470" t="inlineStr"/>
-      <c r="E1470" t="inlineStr"/>
+      <c r="E1470" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr"/>
-      <c r="H1470" t="inlineStr"/>
+      <c r="G1470" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="H1470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>2.408%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
           <t>3</t>
@@ -48090,37 +47670,53 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr"/>
-      <c r="C1472" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1472" t="inlineStr"/>
-      <c r="E1472" t="inlineStr"/>
+      <c r="E1472" t="inlineStr">
+        <is>
+          <t>2.633%</t>
+        </is>
+      </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr"/>
+      <c r="H1472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>2.532%</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
@@ -48134,103 +47730,103 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr"/>
       <c r="H1474" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
+      <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
@@ -48246,55 +47842,47 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1479" t="inlineStr"/>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
       <c r="H1479" t="inlineStr">
@@ -48306,87 +47894,91 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr">
-        <is>
-          <t>84.7</t>
-        </is>
-      </c>
+      <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
+      <c r="G1482" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1482" t="inlineStr">
         <is>
           <t>3</t>
@@ -48394,25 +47986,29 @@
       </c>
     </row>
     <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1483" t="inlineStr"/>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr"/>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>1.493M</t>
+        </is>
+      </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1483" t="inlineStr">
         <is>
           <t>3</t>
@@ -48420,101 +48016,77 @@
       </c>
     </row>
     <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
+      <c r="A1484" t="inlineStr"/>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>43.5K</t>
-        </is>
-      </c>
-      <c r="F1484" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1484" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1485" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1485" t="inlineStr">
-        <is>
-          <t>Jobseekers TotalDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr"/>
+      <c r="C1485" t="inlineStr"/>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>2935K</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1485" t="inlineStr"/>
+      <c r="H1485" t="inlineStr"/>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48524,27 +48096,31 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>3</t>
@@ -48554,27 +48130,31 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48584,63 +48164,63 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48652,31 +48232,27 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
       <c r="H1491" t="inlineStr">
         <is>
           <t>2</t>
@@ -48686,55 +48262,59 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr"/>
+      <c r="E1493" t="inlineStr">
+        <is>
+          <t>0.745%</t>
+        </is>
+      </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
@@ -48746,17 +48326,17 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
@@ -48772,17 +48352,17 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
@@ -48798,17 +48378,17 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
@@ -48817,44 +48397,44 @@
       <c r="G1496" t="inlineStr"/>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
@@ -48864,27 +48444,31 @@
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-1.1%</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
+      <c r="G1498" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
@@ -48894,23 +48478,31 @@
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -48920,13 +48512,21 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1500" t="inlineStr">
         <is>
           <t>3</t>
@@ -48936,7 +48536,7 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48946,11 +48546,15 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr"/>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
       <c r="H1501" t="inlineStr">
@@ -48962,7 +48566,7 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48972,7 +48576,7 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
@@ -48988,65 +48592,57 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1504" t="inlineStr"/>
       <c r="H1504" t="inlineStr">
         <is>
           <t>3</t>
@@ -49054,7 +48650,11 @@
       </c>
     </row>
     <row r="1505">
-      <c r="A1505" t="inlineStr"/>
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1505" t="inlineStr">
         <is>
           <t>US</t>
@@ -49062,21 +48662,13 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
+      <c r="E1505" t="inlineStr"/>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
         <is>
           <t>3</t>
@@ -49084,7 +48676,11 @@
       </c>
     </row>
     <row r="1506">
-      <c r="A1506" t="inlineStr"/>
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1506" t="inlineStr">
         <is>
           <t>US</t>
@@ -49092,25 +48688,17 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1506" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr"/>
       <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
@@ -49120,75 +48708,79 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr"/>
-      <c r="C1507" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+        </is>
+      </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr"/>
+      <c r="H1507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="E1509" t="inlineStr"/>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
@@ -49198,29 +48790,29 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1510" t="inlineStr">
@@ -49232,29 +48824,29 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1511" t="inlineStr">
@@ -49266,31 +48858,27 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
         <is>
           <t>3</t>
@@ -49300,87 +48888,79 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr"/>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
+      <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1514" t="inlineStr"/>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
@@ -49394,21 +48974,25 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
+      <c r="E1516" t="inlineStr">
+        <is>
+          <t>$21.45T</t>
+        </is>
+      </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
@@ -49420,17 +49004,17 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
@@ -49439,126 +49023,138 @@
       <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr"/>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr"/>
+      <c r="G1518" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
+      <c r="G1519" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1521" t="inlineStr">
@@ -49570,61 +49166,61 @@
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
+      <c r="G1523" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1523" t="inlineStr">
         <is>
           <t>3</t>
@@ -49634,21 +49230,25 @@
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
       <c r="H1524" t="inlineStr">
@@ -49660,53 +49260,53 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
@@ -49720,169 +49320,169 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr"/>
+      <c r="C1527" t="inlineStr"/>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr"/>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1527" t="inlineStr"/>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
+      <c r="G1530" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
+      <c r="G1531" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
+      <c r="G1532" t="inlineStr"/>
       <c r="H1532" t="inlineStr">
         <is>
           <t>3</t>
@@ -49892,29 +49492,29 @@
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1533" t="inlineStr">
@@ -49926,23 +49526,23 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr"/>
@@ -49956,79 +49556,83 @@
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr"/>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>96.3</t>
+        </is>
+      </c>
       <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr"/>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>4.532%</t>
+          <t>3.731%</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
@@ -50042,25 +49646,21 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
+      <c r="E1538" t="inlineStr"/>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
@@ -50072,91 +49672,83 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr"/>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.70%</t>
         </is>
       </c>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1541" t="inlineStr"/>
       <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
         <is>
           <t>2</t>
@@ -50166,129 +49758,101 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1542" t="inlineStr"/>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
+      <c r="G1545" t="inlineStr"/>
       <c r="H1545" t="inlineStr">
         <is>
           <t>3</t>
@@ -50298,130 +49862,154 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>$ -104.5B</t>
+        </is>
+      </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>0.595%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr"/>
+      <c r="G1548" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr"/>
-      <c r="C1549" t="inlineStr"/>
+          <t>08:45 AM</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>BoC Monetary Policy Report</t>
+        </is>
+      </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr"/>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr"/>
+      <c r="H1549" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1550" t="inlineStr"/>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1550" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
@@ -50432,123 +50020,99 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1551" t="inlineStr"/>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1552" t="inlineStr"/>
       <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1552" t="inlineStr"/>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1553" t="inlineStr"/>
       <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1553" t="inlineStr"/>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1554" t="inlineStr"/>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
       <c r="H1554" t="inlineStr">
@@ -50560,31 +50124,23 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1555" t="inlineStr"/>
       <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1555" t="inlineStr"/>
       <c r="H1555" t="inlineStr">
         <is>
           <t>3</t>
@@ -50594,25 +50150,21 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1556" t="inlineStr"/>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
       <c r="H1556" t="inlineStr">
@@ -50624,85 +50176,73 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1558" t="inlineStr"/>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1559" t="inlineStr"/>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
@@ -50714,17 +50254,17 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
@@ -50740,25 +50280,21 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
@@ -50770,37 +50306,37 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr"/>
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1562" t="inlineStr"/>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
@@ -50810,7 +50346,7 @@
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
@@ -50819,50 +50355,58 @@
       <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
@@ -50878,17 +50422,17 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
@@ -50904,21 +50448,25 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:01 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr"/>
       <c r="H1567" t="inlineStr">
@@ -50930,31 +50478,23 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
+      <c r="E1568" t="inlineStr"/>
       <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
+      <c r="G1568" t="inlineStr"/>
       <c r="H1568" t="inlineStr">
         <is>
           <t>2</t>
@@ -50964,251 +50504,279 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
+      <c r="G1569" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr"/>
+      <c r="C1571" t="inlineStr"/>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr"/>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr"/>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="H1571" t="inlineStr"/>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>BoC Interest Rate Decision</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1572" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr"/>
+      <c r="G1572" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>BoC Press Conference</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr"/>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>7.77%</t>
+        </is>
+      </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr"/>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+          <t>Private Sector Credit YoYDEC</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr"/>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
       <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr"/>
+      <c r="G1574" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr"/>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr"/>
+      <c r="G1575" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr"/>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+          <t>Household Consumption MoMDEC</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr"/>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
+      <c r="G1577" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1577" t="inlineStr">
         <is>
           <t>3</t>
@@ -51218,21 +50786,25 @@
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
+          <t>Economic Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr"/>
       <c r="H1578" t="inlineStr">
@@ -51244,69 +50816,77 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr"/>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr"/>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
+          <t>Core Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
@@ -51322,17 +50902,17 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
@@ -51348,17 +50928,17 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
@@ -51374,27 +50954,31 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Fed Interest Rate Decision</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
+      <c r="G1584" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1584" t="inlineStr">
         <is>
           <t>1</t>
@@ -51404,23 +50988,31 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Fed Press Conference</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
+      <c r="E1585" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
+      <c r="G1585" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1585" t="inlineStr">
         <is>
           <t>1</t>
@@ -51430,113 +51022,133 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>12.25%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>12.75%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr"/>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
+      <c r="G1587" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
-      <c r="E1588" t="inlineStr"/>
+      <c r="E1588" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
       <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr"/>
+      <c r="G1588" t="inlineStr">
+        <is>
+          <t>6.00%</t>
+        </is>
+      </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>07:01 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>Car Production YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>-30%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
+      <c r="G1589" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1589" t="inlineStr">
         <is>
           <t>3</t>
@@ -51546,169 +51158,193 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>RBA Bulletin</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr"/>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr"/>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>Export Prices QoQQ4</t>
+          <t>BoE Consumer CreditDEC</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>£0.878B</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>£ 1.3B</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>Import Prices QoQQ4</t>
+          <t>Mortgage ApprovalsDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>65.72K</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>61.5K</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1593" t="inlineStr"/>
-      <c r="C1593" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>Mortgage LendingDEC</t>
+        </is>
+      </c>
       <c r="D1593" t="inlineStr"/>
-      <c r="E1593" t="inlineStr"/>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t>£2.47B</t>
+        </is>
+      </c>
       <c r="F1593" t="inlineStr"/>
-      <c r="G1593" t="inlineStr"/>
-      <c r="H1593" t="inlineStr"/>
+      <c r="G1593" t="inlineStr">
+        <is>
+          <t>£ 2.2B</t>
+        </is>
+      </c>
+      <c r="H1593" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>M4 Money Supply MoMDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G1594" t="inlineStr"/>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>Net Lending to Individuals MoMDEC</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>7.77%</t>
+          <t>£3.4B</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr"/>
-      <c r="G1595" t="inlineStr"/>
+      <c r="G1595" t="inlineStr">
+        <is>
+          <t>£ 3.5B</t>
+        </is>
+      </c>
       <c r="H1595" t="inlineStr">
         <is>
           <t>3</t>
@@ -51718,63 +51354,63 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>4.16%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr"/>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ PrelQ4</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr"/>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
@@ -51786,31 +51422,27 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>Consumer Confidence FinalJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="G1598" t="inlineStr"/>
       <c r="H1598" t="inlineStr">
         <is>
           <t>2</t>
@@ -51820,145 +51452,145 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Household Consumption MoMDEC</t>
+          <t>Economic SentimentJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
-      <c r="E1599" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E1599" t="inlineStr"/>
       <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1599" t="inlineStr"/>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Economic Confidence IndexJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr"/>
+      <c r="G1600" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Industrial SentimentJAN</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-14.1</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY PrelJAN</t>
+          <t>Selling Price ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr"/>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
@@ -51970,21 +51602,25 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Services SentimentJAN</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr"/>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
@@ -51996,21 +51632,25 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>IGP-M Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr"/>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
       <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
@@ -52022,395 +51662,367 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>Industrial Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
-      <c r="E1606" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1606" t="inlineStr"/>
       <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>Industrial Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1607" t="inlineStr"/>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>MPC Meeting Summary</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1608" t="inlineStr"/>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>GDP Growth Rate QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>6.00%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
       <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>BoE Consumer CreditDEC</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>£0.878B</t>
+          <t>7.75%</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>£ 1.3B</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Mortgage ApprovalsDEC</t>
+          <t>Prime Overdraft Rate</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>65.72K</t>
+          <t>11.25%</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>61.5K</t>
-        </is>
-      </c>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Mortgage LendingDEC</t>
+          <t>Deposit Facility Rate</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>£2.47B</t>
-        </is>
-      </c>
-      <c r="F1615" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1615" t="inlineStr">
+        <is>
+          <t>2.75%</t>
+        </is>
+      </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>£ 2.2B</t>
+          <t>2.75%</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>M4 Money Supply MoMDEC</t>
+          <t>ECB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr"/>
+          <t>3.15%</t>
+        </is>
+      </c>
+      <c r="F1616" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G1616" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Net Lending to Individuals MoMDEC</t>
+          <t>Marginal Lending Rate</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>£3.4B</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>£ 3.5B</t>
+          <t>3.15%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -52422,63 +52034,63 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>Average Weekly Earnings YoYNOV</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>6.50%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -52490,27 +52102,27 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Consumer Confidence FinalJAN</t>
+          <t>GDP Price Index QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
+      <c r="E1620" t="inlineStr"/>
       <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>126.1%</t>
+        </is>
+      </c>
       <c r="H1620" t="inlineStr">
         <is>
           <t>2</t>
@@ -52520,17 +52132,17 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Economic SentimentJAN</t>
+          <t>Initial Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
@@ -52546,57 +52158,49 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>Continuing Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
-      <c r="E1622" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1622" t="inlineStr"/>
       <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1622" t="inlineStr"/>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Core PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
@@ -52610,23 +52214,23 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Industrial SentimentJAN</t>
+          <t>GDP Sales QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>-14.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
@@ -52640,25 +52244,21 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Selling Price ExpectationsJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/25</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
+      <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
       <c r="H1625" t="inlineStr">
@@ -52670,23 +52270,23 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Services SentimentJAN</t>
+          <t>PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr"/>
@@ -52700,23 +52300,23 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>IGP-M Inflation MoMJAN</t>
+          <t>Real Consumer Spending QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr"/>
@@ -52730,17 +52330,17 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Industrial Sales MoMNOV</t>
+          <t>ECB Press Conference</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
@@ -52749,50 +52349,46 @@
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1629">
-      <c r="A1629" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
+      <c r="A1629" t="inlineStr"/>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Industrial Sales YoYNOV</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr"/>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>ZAR-4.46B</t>
+        </is>
+      </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1630">
-      <c r="A1630" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
+      <c r="A1630" t="inlineStr"/>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>MPC Meeting Summary</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
@@ -52801,327 +52397,33 @@
       <c r="G1630" t="inlineStr"/>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
+      <c r="A1631" t="inlineStr"/>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Private Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr"/>
       <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr"/>
+      <c r="G1631" t="inlineStr">
+        <is>
+          <t>12.1%</t>
+        </is>
+      </c>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1632" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1632" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1633" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1633" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>07:15 AM</t>
-        </is>
-      </c>
-      <c r="B1634" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1634" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>-4.6</t>
-        </is>
-      </c>
-      <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr"/>
-      <c r="H1634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1635" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1635" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>7.75%</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr"/>
-      <c r="G1635" t="inlineStr"/>
-      <c r="H1635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>Prime Overdraft Rate</t>
-        </is>
-      </c>
-      <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>11.25%</t>
-        </is>
-      </c>
-      <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1637" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1637" t="inlineStr">
-        <is>
-          <t>Deposit Facility Rate</t>
-        </is>
-      </c>
-      <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr">
-        <is>
-          <t>2.75%</t>
-        </is>
-      </c>
-      <c r="G1637" t="inlineStr">
-        <is>
-          <t>2.75%</t>
-        </is>
-      </c>
-      <c r="H1637" t="inlineStr">
-        <is>
           <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>ECB Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>3.15%</t>
-        </is>
-      </c>
-      <c r="F1638" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1639" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1639" t="inlineStr">
-        <is>
-          <t>Marginal Lending Rate</t>
-        </is>
-      </c>
-      <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>3.15%</t>
-        </is>
-      </c>
-      <c r="H1639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" t="inlineStr"/>
-      <c r="B1640" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1640" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D1640" t="inlineStr"/>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>ZAR-4.46B</t>
-        </is>
-      </c>
-      <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr"/>
-      <c r="H1640" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
